--- a/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
+++ b/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceAssociation.operation` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceAssociation.operation` is mapped to FHIR R4 structure `Device`, but has no target element specified.</t>
+Element `DeviceAssociation.operation` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Device</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `DeviceAssociation.operation.status` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.status` is mapped to FHIR R4 structure `Device`, but has no target element specified.</t>
+Element `DeviceAssociation.operation.status` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -422,7 +422,8 @@
   </si>
   <si>
     <t>Element `DeviceAssociation.operation.operator` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.operator` is mapped to FHIR R4 structure `Device`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.operation.operator` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DeviceAssociation.operation.operator` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:operator.id</t>
@@ -454,7 +455,7 @@
   </si>
   <si>
     <t>Element `DeviceAssociation.operation.period` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.period` is mapped to FHIR R4 structure `Device`, but has no target element specified.</t>
+Element `DeviceAssociation.operation.period` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -820,7 +821,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="137.06640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="202.421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
+++ b/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceAssociation.operation` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceAssociation.operation` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `DeviceAssociation.operation` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `DeviceAssociation.operation.status` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.status` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `DeviceAssociation.operation.status` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation.status</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,7 +426,7 @@
   <si>
     <t>Element `DeviceAssociation.operation.operator` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.operation.operator` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DeviceAssociation.operation.operator` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `DeviceAssociation.operation.operator` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:operator.id</t>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>Extension.extension:operator.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation.operator</t>
   </si>
   <si>
     <t>Extension.extension:operator.value[x]</t>
@@ -455,7 +461,7 @@
   </si>
   <si>
     <t>Element `DeviceAssociation.operation.period` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.period` is will have a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+Element `DeviceAssociation.operation.period` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -465,6 +471,9 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1669,7 +1678,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1684,15 +1693,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1715,7 +1724,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1772,7 +1781,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1784,21 +1793,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1823,14 +1832,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1899,7 +1908,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2002,7 +2011,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2107,7 +2116,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2150,7 +2159,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2192,7 +2201,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2207,15 +2216,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2238,13 +2247,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2295,7 +2304,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2307,21 +2316,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2346,14 +2355,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2422,7 +2431,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2525,7 +2534,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2630,7 +2639,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2673,7 +2682,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2715,7 +2724,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2730,15 +2739,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2761,13 +2770,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2818,7 +2827,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2830,18 +2839,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2923,7 +2932,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -2938,15 +2947,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2969,13 +2978,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3026,7 +3035,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3038,10 +3047,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
+++ b/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -444,7 +444,7 @@
     <t>Extension.extension:operator.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
+++ b/StructureDefinition-ext-R5-DeviceAssociation.operation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Device operational condition corresponding to the association.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.operation.status` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.status` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `DeviceAssociation.operation.status` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation.status</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -405,6 +401,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Describes the the status of the association operation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-deviceassociation-operationstatus-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -424,8 +429,7 @@
     <t>The individual performing the action enabled by the device.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.operation.operator` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.operation.operator` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DeviceAssociation.operation.operator` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `DeviceAssociation.operation.operator` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
@@ -438,13 +442,10 @@
     <t>Extension.extension:operator.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation.operator</t>
-  </si>
-  <si>
     <t>Extension.extension:operator.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -460,8 +461,7 @@
     <t>Begin and end dates and times for the device's operation.</t>
   </si>
   <si>
-    <t>Element `DeviceAssociation.operation.period` is part of an existing definition because parent element `DeviceAssociation.operation` requires a cross-version extension.
-Element `DeviceAssociation.operation.period` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
+    <t>Element `DeviceAssociation.operation.period` has a context of Device based on following the parent source element upwards and mapping to `Device`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -471,9 +471,6 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceAssociation.operation.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -840,8 +837,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.19921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1636,72 +1633,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1724,7 +1721,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1757,13 +1754,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1781,7 +1778,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1793,21 +1790,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1832,14 +1829,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1908,7 +1905,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2159,7 +2156,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2201,30 +2198,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2247,13 +2244,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2304,7 +2301,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2316,21 +2313,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2355,14 +2352,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2639,7 +2636,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2682,7 +2679,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2724,22 +2721,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -2747,7 +2744,7 @@
         <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2773,10 +2770,10 @@
         <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2827,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2839,18 +2836,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2932,30 +2929,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3035,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3047,10 +3044,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
